--- a/biology/Médecine/1281_en_santé_et_médecine/1281_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1281_en_santé_et_médecine/1281_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1281_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1281_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1281 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1281_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1281_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13 avril : Jacques II, roi de Majorque et seigneur de Montpellier, confirme les privilèges accordés à l'université de médecine par son père, Jacques le Conquérant[1], dans une charte où « il défend à toutes sortes de personnes de l'un et l'autre sexe, Chrétiens ou Juifs, d'exercer aucun office dans la faculté de médecine, et de la pratiquer, à moins qu'ils n'y aient été examinés et licenciés[2] », privilèges que le roi de France Philippe de Valois renouvellera en 1331.
-Selon Raffaele Ciasca (it), une dissection humaine est pratiquée pour la première fois à Bologne[3].
-Les statuts de la faculté de médecine de Paris « s'élèvent contre l'ingérence des apothicaires ou des herboristes (apothecarii vel herbarii) dans l'art médical » et le doyen Jean de Cherolles déclare « qu'ils […] déshonorent les médecins », ce qui n'empêche pas leur corporation de continuer d'empiéter sur leur domaine[4].
-Les statuts de Venise obligent les médecins à déclarer aux autorités tous les cas de blessures portés à leur connaissance[5].
-Première mention de l'hospice du Malpas (hospicia deux Malpas) à l'ouest de Privas, en Vivarais, le long de la route du Pouzin au Puy[6].
-À Allerdene, dans la paroisse civile de Whitton and Tosson (sv) dans le Northumberland, l'hôpital Saint-Léonard (Hospital of St. Leonard) est mentionné pour la première fois sous le nom d'Alryburn Hospital[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 avril : Jacques II, roi de Majorque et seigneur de Montpellier, confirme les privilèges accordés à l'université de médecine par son père, Jacques le Conquérant, dans une charte où « il défend à toutes sortes de personnes de l'un et l'autre sexe, Chrétiens ou Juifs, d'exercer aucun office dans la faculté de médecine, et de la pratiquer, à moins qu'ils n'y aient été examinés et licenciés », privilèges que le roi de France Philippe de Valois renouvellera en 1331.
+Selon Raffaele Ciasca (it), une dissection humaine est pratiquée pour la première fois à Bologne.
+Les statuts de la faculté de médecine de Paris « s'élèvent contre l'ingérence des apothicaires ou des herboristes (apothecarii vel herbarii) dans l'art médical » et le doyen Jean de Cherolles déclare « qu'ils […] déshonorent les médecins », ce qui n'empêche pas leur corporation de continuer d'empiéter sur leur domaine.
+Les statuts de Venise obligent les médecins à déclarer aux autorités tous les cas de blessures portés à leur connaissance.
+Première mention de l'hospice du Malpas (hospicia deux Malpas) à l'ouest de Privas, en Vivarais, le long de la route du Pouzin au Puy.
+À Allerdene, dans la paroisse civile de Whitton and Tosson (sv) dans le Northumberland, l'hôpital Saint-Léonard (Hospital of St. Leonard) est mentionné pour la première fois sous le nom d'Alryburn Hospital.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1281_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1281_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Paravicini, médecin de Venise, traduit en latin le Teysir d'Avenzoar à partir de la version hébraïque de Jacob l'Hébreu[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Paravicini, médecin de Venise, traduit en latin le Teysir d'Avenzoar à partir de la version hébraïque de Jacob l'Hébreu.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1281_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1281_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Zhu Zhenheng (mort en 1358), médecin chinois, « chef de file du courant de l'entretien du yin[9] ».
-Entre 1271 et 1281 : Jean Blaise (mort en 1341), chirurgien et médecin du roi Robert, frère d'Armengaud Blaise et neveu d'Arnaud de Villeneuve[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zhu Zhenheng (mort en 1358), médecin chinois, « chef de file du courant de l'entretien du yin ».
+Entre 1271 et 1281 : Jean Blaise (mort en 1341), chirurgien et médecin du roi Robert, frère d'Armengaud Blaise et neveu d'Arnaud de Villeneuve.</t>
         </is>
       </c>
     </row>
